--- a/data/predictions/crim_justice/sentencing/leveled/strongrepublican.xlsx
+++ b/data/predictions/crim_justice/sentencing/leveled/strongrepublican.xlsx
@@ -874,7 +874,7 @@
         <v>0.7960637239586918</v>
       </c>
       <c r="F34">
-        <v>0.01444201665606406</v>
+        <v>0.01397395653674149</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -888,7 +888,7 @@
         <v>0.7829179272132252</v>
       </c>
       <c r="F35">
-        <v>0.03813141494441605</v>
+        <v>0.04146021684238673</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -902,7 +902,7 @@
         <v>0.7734459221313343</v>
       </c>
       <c r="F36">
-        <v>0.03611892109147316</v>
+        <v>0.03495765037141031</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -916,7 +916,7 @@
         <v>0.7660287306462527</v>
       </c>
       <c r="F37">
-        <v>0.03821381721237785</v>
+        <v>0.0389284069802455</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -930,7 +930,7 @@
         <v>0.7597608310384143</v>
       </c>
       <c r="F38">
-        <v>0.03762815336934536</v>
+        <v>0.03977844553243736</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -944,7 +944,7 @@
         <v>0.7541357497480858</v>
       </c>
       <c r="F39">
-        <v>0.03879187338467877</v>
+        <v>0.03710270299894124</v>
       </c>
     </row>
   </sheetData>
